--- a/Laporan/BAHAN BUKU/Real Life Test/Percobaan Statis Dinamis Inyas 179.xlsx
+++ b/Laporan/BAHAN BUKU/Real Life Test/Percobaan Statis Dinamis Inyas 179.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Badan</t>
   </si>
@@ -112,14 +112,25 @@
   </si>
   <si>
     <t>Statis jadi Dinamis</t>
+  </si>
+  <si>
+    <t>Akurasi (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -476,11 +487,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +614,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2326,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31">
+        <v>20</v>
+      </c>
+      <c r="D23" s="32">
+        <v>40</v>
+      </c>
+      <c r="E23" s="32">
+        <v>40</v>
+      </c>
+      <c r="F23" s="32">
+        <v>60</v>
+      </c>
+      <c r="G23" s="32">
+        <v>100</v>
+      </c>
+      <c r="H23" s="32">
+        <v>100</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>60</v>
+      </c>
+      <c r="K23" s="32">
+        <v>100</v>
+      </c>
+      <c r="L23" s="32">
+        <v>100</v>
+      </c>
+      <c r="M23" s="32">
+        <v>20</v>
+      </c>
+      <c r="N23" s="32">
+        <v>80</v>
+      </c>
+      <c r="O23" s="32">
+        <v>20</v>
+      </c>
+      <c r="P23" s="32">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>60</v>
+      </c>
+      <c r="R23" s="32">
+        <v>60</v>
+      </c>
+      <c r="S23" s="32">
+        <v>60</v>
+      </c>
+      <c r="T23" s="32">
+        <v>80</v>
+      </c>
+      <c r="U23" s="32">
+        <v>40</v>
+      </c>
+      <c r="V23" s="33">
+        <v>40</v>
+      </c>
+    </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>21</v>
@@ -2349,10 +2478,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>SUM(C23:V23)/20</f>
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
